--- a/vehicleData.xlsx
+++ b/vehicleData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joel_CSC122\csc122\CSC122_classMaterial\2020SP\assignment02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Desktop/csc122/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B75C775-65E2-094A-9666-F14A6CE33E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-22940" yWindow="2720" windowWidth="24320" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicleData" sheetId="2" r:id="rId1"/>
     <sheet name="maintenanceData" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">maintenanceData!$A$1:$J$151</definedName>
@@ -29,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="264">
-  <si>
-    <t>ID (primary key)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="260">
   <si>
     <t>vehicleID</t>
   </si>
   <si>
-    <t>vehicleID (primary key)</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>License Plate</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>PurchasePrice</t>
   </si>
   <si>
-    <t>PruchaseMileage</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -814,19 +802,19 @@
     <t>Tune Ups R Us</t>
   </si>
   <si>
-    <t>tires / wheels</t>
-  </si>
-  <si>
-    <t>major overhaul</t>
-  </si>
-  <si>
-    <t>mechanical failure</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>LicensePlate</t>
+  </si>
+  <si>
+    <t>PurchaseMileage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1170,82 +1158,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>2011</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4">
         <v>38564</v>
@@ -1257,30 +1245,30 @@
         <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>2015</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" s="4">
         <v>36570</v>
@@ -1292,30 +1280,30 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="4">
         <v>38768</v>
@@ -1327,27 +1315,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>1999</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4">
         <v>37287</v>
@@ -1359,30 +1347,30 @@
         <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="4">
         <v>38409</v>
@@ -1394,27 +1382,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>2001</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="4">
         <v>42094</v>
@@ -1426,27 +1414,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>2013</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" s="4">
         <v>38717</v>
@@ -1458,27 +1446,27 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="4">
         <v>39768</v>
@@ -1490,27 +1478,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H10" s="4">
         <v>38145</v>
@@ -1522,27 +1510,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>2019</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="4">
         <v>39294</v>
@@ -1554,27 +1542,27 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>2019</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" s="4">
         <v>37942</v>
@@ -1586,27 +1574,27 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>2009</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H13" s="4">
         <v>39599</v>
@@ -1618,27 +1606,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>2011</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="4">
         <v>38503</v>
@@ -1650,27 +1638,27 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1014</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>2012</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H15" s="4">
         <v>41578</v>
@@ -1682,27 +1670,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>2018</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="4">
         <v>39233</v>
@@ -1714,27 +1702,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>2008</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" s="4">
         <v>38807</v>
@@ -1746,27 +1734,27 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
         <v>2009</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H18" s="4">
         <v>37864</v>
@@ -1778,27 +1766,27 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="4">
         <v>36464</v>
@@ -1810,27 +1798,27 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>2013</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="4">
         <v>41425</v>
@@ -1842,27 +1830,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>2004</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="4">
         <v>41305</v>
@@ -1874,10 +1862,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H23" s="4"/>
     </row>
   </sheetData>
@@ -1887,61 +1875,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1949,7 +1937,7 @@
         <v>1019</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D2" s="4">
         <v>42094</v>
@@ -1958,19 +1946,19 @@
         <v>26159</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G2" s="5">
         <v>42.25</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1978,7 +1966,7 @@
         <v>1005</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D3" s="4">
         <v>38827</v>
@@ -1987,19 +1975,19 @@
         <v>46497</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G3" s="5">
         <v>296.41000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2007,7 +1995,7 @@
         <v>1009</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D4" s="4">
         <v>42886</v>
@@ -2016,19 +2004,19 @@
         <v>39804</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G4" s="5">
         <v>186.51</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2036,7 +2024,7 @@
         <v>1007</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D5" s="4">
         <v>36416</v>
@@ -2045,19 +2033,19 @@
         <v>37902</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G5" s="5">
         <v>324.76</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2065,7 +2053,7 @@
         <v>1007</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" s="4">
         <v>39691</v>
@@ -2074,19 +2062,19 @@
         <v>4591</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G6" s="5">
         <v>44.52</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2094,7 +2082,7 @@
         <v>1014</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D7" s="4">
         <v>43039</v>
@@ -2103,19 +2091,19 @@
         <v>34138</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G7" s="5">
         <v>53.47</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2123,7 +2111,7 @@
         <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D8" s="4">
         <v>42698</v>
@@ -2132,19 +2120,19 @@
         <v>49595</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G8" s="5">
         <v>411</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2152,7 +2140,7 @@
         <v>1010</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D9" s="4">
         <v>37256</v>
@@ -2161,19 +2149,19 @@
         <v>41347</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G9" s="5">
         <v>36.979999999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2181,7 +2169,7 @@
         <v>1003</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D10" s="4">
         <v>39172</v>
@@ -2190,19 +2178,19 @@
         <v>6102</v>
       </c>
       <c r="F10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G10" s="5">
         <v>409.96</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -2210,7 +2198,7 @@
         <v>1019</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D11" s="4">
         <v>43042</v>
@@ -2219,19 +2207,19 @@
         <v>8975</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G11" s="5">
         <v>415.35</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -2239,7 +2227,7 @@
         <v>1016</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D12" s="4">
         <v>39233</v>
@@ -2248,19 +2236,19 @@
         <v>15765</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G12" s="5">
         <v>197.85</v>
       </c>
       <c r="H12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -2268,7 +2256,7 @@
         <v>1020</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" s="4">
         <v>36250</v>
@@ -2277,19 +2265,19 @@
         <v>47702</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G13" s="5">
         <v>44.87</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -2297,7 +2285,7 @@
         <v>1010</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D14" s="4">
         <v>37468</v>
@@ -2306,19 +2294,19 @@
         <v>42553</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G14" s="5">
         <v>373.65</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -2326,7 +2314,7 @@
         <v>1019</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D15" s="4">
         <v>41425</v>
@@ -2335,19 +2323,19 @@
         <v>29293</v>
       </c>
       <c r="F15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G15" s="5">
         <v>106.45</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -2355,7 +2343,7 @@
         <v>1011</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="4">
         <v>38598</v>
@@ -2364,19 +2352,19 @@
         <v>54680</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G16" s="5">
         <v>56.73</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -2384,7 +2372,7 @@
         <v>1009</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D17" s="4">
         <v>36403</v>
@@ -2393,19 +2381,19 @@
         <v>39511</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G17" s="5">
         <v>251.7</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -2413,7 +2401,7 @@
         <v>1002</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D18" s="4">
         <v>37658</v>
@@ -2422,19 +2410,19 @@
         <v>25901</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G18" s="5">
         <v>323.45999999999998</v>
       </c>
       <c r="H18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -2442,7 +2430,7 @@
         <v>1007</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D19" s="4">
         <v>41425</v>
@@ -2451,19 +2439,19 @@
         <v>22409</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G19" s="5">
         <v>239.74</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -2471,7 +2459,7 @@
         <v>1004</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D20" s="4">
         <v>38018</v>
@@ -2480,19 +2468,19 @@
         <v>44300</v>
       </c>
       <c r="F20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G20" s="5">
         <v>327.33</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -2500,7 +2488,7 @@
         <v>1019</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D21" s="4">
         <v>41152</v>
@@ -2509,19 +2497,19 @@
         <v>39703</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G21" s="5">
         <v>281.79000000000002</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -2529,7 +2517,7 @@
         <v>1008</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D22" s="4">
         <v>41060</v>
@@ -2538,19 +2526,19 @@
         <v>50068</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G22" s="5">
         <v>44.98</v>
       </c>
       <c r="H22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -2558,7 +2546,7 @@
         <v>1004</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D23" s="4">
         <v>39478</v>
@@ -2567,19 +2555,19 @@
         <v>36431</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G23" s="5">
         <v>150.55000000000001</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -2587,7 +2575,7 @@
         <v>1013</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D24" s="4">
         <v>41274</v>
@@ -2596,19 +2584,19 @@
         <v>17035</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G24" s="5">
         <v>157</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>1006</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D25" s="4">
         <v>37407</v>
@@ -2625,19 +2613,19 @@
         <v>25325</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G25" s="5">
         <v>39.869999999999997</v>
       </c>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -2645,7 +2633,7 @@
         <v>1017</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D26" s="4">
         <v>39082</v>
@@ -2654,19 +2642,19 @@
         <v>13915</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G26" s="5">
         <v>298.13</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -2674,7 +2662,7 @@
         <v>1008</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D27" s="4">
         <v>37519</v>
@@ -2683,19 +2671,19 @@
         <v>35393</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G27" s="5">
         <v>129.96</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -2703,7 +2691,7 @@
         <v>1006</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D28" s="4">
         <v>40694</v>
@@ -2712,19 +2700,19 @@
         <v>51571</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G28" s="5">
         <v>300.64999999999998</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -2732,7 +2720,7 @@
         <v>1018</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D29" s="4">
         <v>39550</v>
@@ -2741,19 +2729,19 @@
         <v>55825</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G29" s="5">
         <v>448.8</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -2761,7 +2749,7 @@
         <v>1015</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D30" s="4">
         <v>43152</v>
@@ -2770,19 +2758,19 @@
         <v>9328</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G30" s="5">
         <v>306.48</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -2790,7 +2778,7 @@
         <v>1005</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D31" s="4">
         <v>39176</v>
@@ -2799,19 +2787,19 @@
         <v>40456</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G31" s="5">
         <v>38.47</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -2819,7 +2807,7 @@
         <v>1018</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D32" s="4">
         <v>40805</v>
@@ -2828,19 +2816,19 @@
         <v>18814</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G32" s="5">
         <v>1287</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -2848,7 +2836,7 @@
         <v>1016</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D33" s="4">
         <v>37134</v>
@@ -2857,19 +2845,19 @@
         <v>16604</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G33" s="5">
         <v>291.75</v>
       </c>
       <c r="H33" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -2877,7 +2865,7 @@
         <v>1019</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D34" s="4">
         <v>39021</v>
@@ -2886,19 +2874,19 @@
         <v>28323</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G34" s="5">
         <v>405.26</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -2906,7 +2894,7 @@
         <v>1016</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D35" s="4">
         <v>36922</v>
@@ -2915,19 +2903,19 @@
         <v>50771</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G35" s="5">
         <v>344.89</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -2935,7 +2923,7 @@
         <v>1020</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D36" s="4">
         <v>43415</v>
@@ -2944,19 +2932,19 @@
         <v>52225</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G36" s="5">
         <v>130.83000000000001</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -2964,7 +2952,7 @@
         <v>1009</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D37" s="4">
         <v>39905</v>
@@ -2973,19 +2961,19 @@
         <v>50007</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G37" s="5">
         <v>60.46</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -2993,7 +2981,7 @@
         <v>1002</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D38" s="4">
         <v>43424</v>
@@ -3002,19 +2990,19 @@
         <v>9447</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G38" s="5">
         <v>273.07</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -3022,7 +3010,7 @@
         <v>1019</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D39" s="4">
         <v>37414</v>
@@ -3031,19 +3019,19 @@
         <v>15624</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G39" s="5">
         <v>239.53</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -3051,7 +3039,7 @@
         <v>1016</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D40" s="4">
         <v>43465</v>
@@ -3060,19 +3048,19 @@
         <v>25451</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G40" s="5">
         <v>167.67</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -3080,7 +3068,7 @@
         <v>1017</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D41" s="4">
         <v>40865</v>
@@ -3089,19 +3077,19 @@
         <v>40804</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G41" s="5">
         <v>103.69</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -3109,7 +3097,7 @@
         <v>1007</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D42" s="4">
         <v>42254</v>
@@ -3118,19 +3106,19 @@
         <v>53707</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G42" s="5">
         <v>407.59</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -3138,7 +3126,7 @@
         <v>1013</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D43" s="4">
         <v>43264</v>
@@ -3147,19 +3135,19 @@
         <v>18474</v>
       </c>
       <c r="F43" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G43" s="5">
         <v>328.9</v>
       </c>
       <c r="H43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -3167,7 +3155,7 @@
         <v>1017</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D44" s="4">
         <v>43039</v>
@@ -3176,19 +3164,19 @@
         <v>25529</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G44" s="5">
         <v>310.31</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -3196,7 +3184,7 @@
         <v>1004</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D45" s="4">
         <v>39021</v>
@@ -3205,19 +3193,19 @@
         <v>24365</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G45" s="5">
         <v>329.01</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -3225,7 +3213,7 @@
         <v>1019</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D46" s="4">
         <v>43207</v>
@@ -3234,19 +3222,19 @@
         <v>9352</v>
       </c>
       <c r="F46" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G46" s="5">
         <v>373.22</v>
       </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -3254,7 +3242,7 @@
         <v>1001</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D47" s="4">
         <v>37621</v>
@@ -3263,19 +3251,19 @@
         <v>39133</v>
       </c>
       <c r="F47" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G47" s="5">
         <v>399.65</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -3283,7 +3271,7 @@
         <v>1009</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D48" s="4">
         <v>37287</v>
@@ -3292,19 +3280,19 @@
         <v>11002</v>
       </c>
       <c r="F48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G48" s="5">
         <v>397.03</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -3312,7 +3300,7 @@
         <v>1017</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D49" s="4">
         <v>36994</v>
@@ -3321,19 +3309,19 @@
         <v>54218</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G49" s="5">
         <v>87.1</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -3341,7 +3329,7 @@
         <v>1012</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D50" s="4">
         <v>42978</v>
@@ -3350,19 +3338,19 @@
         <v>40843</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G50" s="5">
         <v>317.83</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -3370,7 +3358,7 @@
         <v>1003</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D51" s="4">
         <v>39599</v>
@@ -3379,19 +3367,19 @@
         <v>19351</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G51" s="5">
         <v>425.06</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -3399,7 +3387,7 @@
         <v>1011</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D52" s="4">
         <v>38717</v>
@@ -3408,19 +3396,19 @@
         <v>16234</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G52" s="5">
         <v>142.07</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -3428,7 +3416,7 @@
         <v>1001</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D53" s="4">
         <v>38352</v>
@@ -3437,19 +3425,19 @@
         <v>49456</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G53" s="5">
         <v>131.69</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -3457,7 +3445,7 @@
         <v>1008</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D54" s="4">
         <v>42460</v>
@@ -3466,19 +3454,19 @@
         <v>34715</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G54" s="5">
         <v>51.45</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -3486,7 +3474,7 @@
         <v>1005</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D55" s="4">
         <v>42766</v>
@@ -3495,19 +3483,19 @@
         <v>39862</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G55" s="5">
         <v>298.98</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -3515,7 +3503,7 @@
         <v>1011</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D56" s="4">
         <v>42097</v>
@@ -3524,19 +3512,19 @@
         <v>9713</v>
       </c>
       <c r="F56" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G56" s="5">
         <v>131.02000000000001</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -3544,7 +3532,7 @@
         <v>1014</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D57" s="4">
         <v>39082</v>
@@ -3553,19 +3541,19 @@
         <v>38117</v>
       </c>
       <c r="F57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G57" s="5">
         <v>116.85</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -3573,7 +3561,7 @@
         <v>1002</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D58" s="4">
         <v>43154</v>
@@ -3582,19 +3570,19 @@
         <v>9106</v>
       </c>
       <c r="F58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G58" s="5">
         <v>51.27</v>
       </c>
       <c r="H58" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -3602,7 +3590,7 @@
         <v>1009</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D59" s="4">
         <v>42735</v>
@@ -3611,19 +3599,19 @@
         <v>16182</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G59" s="5">
         <v>46.21</v>
       </c>
       <c r="H59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I59" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -3631,7 +3619,7 @@
         <v>1020</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D60" s="4">
         <v>37880</v>
@@ -3640,19 +3628,19 @@
         <v>19585</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G60" s="5">
         <v>98.11</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -3660,7 +3648,7 @@
         <v>1004</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D61" s="4">
         <v>38077</v>
@@ -3669,19 +3657,19 @@
         <v>41264</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G61" s="5">
         <v>371.57</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -3689,7 +3677,7 @@
         <v>1011</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D62" s="4">
         <v>39752</v>
@@ -3698,19 +3686,19 @@
         <v>48097</v>
       </c>
       <c r="F62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G62" s="5">
         <v>295.93</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -3718,7 +3706,7 @@
         <v>1005</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D63" s="4">
         <v>38756</v>
@@ -3727,19 +3715,19 @@
         <v>43491</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G63" s="5">
         <v>71.84</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -3747,7 +3735,7 @@
         <v>1004</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D64" s="4">
         <v>41973</v>
@@ -3756,19 +3744,19 @@
         <v>30165</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G64" s="5">
         <v>361.31</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -3776,7 +3764,7 @@
         <v>1008</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D65" s="4">
         <v>42308</v>
@@ -3785,19 +3773,19 @@
         <v>31534</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G65" s="5">
         <v>44.66</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -3805,7 +3793,7 @@
         <v>1006</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D66" s="4">
         <v>41384</v>
@@ -3814,19 +3802,19 @@
         <v>10306</v>
       </c>
       <c r="F66" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G66" s="5">
         <v>240.8</v>
       </c>
       <c r="H66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -3834,7 +3822,7 @@
         <v>1004</v>
       </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D67" s="4">
         <v>40025</v>
@@ -3843,19 +3831,19 @@
         <v>29283</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G67" s="5">
         <v>135.13</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -3863,7 +3851,7 @@
         <v>1011</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D68" s="4">
         <v>36799</v>
@@ -3872,19 +3860,19 @@
         <v>20071</v>
       </c>
       <c r="F68" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G68" s="5">
         <v>374.15</v>
       </c>
       <c r="H68" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -3892,7 +3880,7 @@
         <v>1006</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D69" s="4">
         <v>37256</v>
@@ -3901,19 +3889,19 @@
         <v>27968</v>
       </c>
       <c r="F69" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G69" s="5">
         <v>233.2</v>
       </c>
       <c r="H69" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -3921,7 +3909,7 @@
         <v>1002</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D70" s="4">
         <v>38769</v>
@@ -3930,19 +3918,19 @@
         <v>46407</v>
       </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G70" s="5">
         <v>123.76</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -3950,7 +3938,7 @@
         <v>1019</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D71" s="4">
         <v>37567</v>
@@ -3959,19 +3947,19 @@
         <v>30611</v>
       </c>
       <c r="F71" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G71" s="5">
         <v>182.18</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -3979,7 +3967,7 @@
         <v>1005</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D72" s="4">
         <v>40574</v>
@@ -3988,19 +3976,19 @@
         <v>10518</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G72" s="5">
         <v>456.42</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -4008,7 +3996,7 @@
         <v>1010</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D73" s="4">
         <v>37889</v>
@@ -4017,19 +4005,19 @@
         <v>28935</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G73" s="5">
         <v>169.16</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -4037,7 +4025,7 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D74" s="4">
         <v>41790</v>
@@ -4046,19 +4034,19 @@
         <v>36927</v>
       </c>
       <c r="F74" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G74" s="5">
         <v>290.48</v>
       </c>
       <c r="H74" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -4066,7 +4054,7 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D75" s="4">
         <v>36677</v>
@@ -4075,19 +4063,19 @@
         <v>7168</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G75" s="5">
         <v>133.32</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -4095,7 +4083,7 @@
         <v>1013</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D76" s="4">
         <v>41367</v>
@@ -4104,19 +4092,19 @@
         <v>35844</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G76" s="5">
         <v>258.2</v>
       </c>
       <c r="H76" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -4124,7 +4112,7 @@
         <v>1019</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D77" s="4">
         <v>40574</v>
@@ -4133,19 +4121,19 @@
         <v>46568</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G77" s="5">
         <v>386.55</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -4153,7 +4141,7 @@
         <v>1005</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D78" s="4">
         <v>39082</v>
@@ -4162,19 +4150,19 @@
         <v>33870</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G78" s="5">
         <v>441.06</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -4182,7 +4170,7 @@
         <v>1017</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D79" s="4">
         <v>38503</v>
@@ -4191,19 +4179,19 @@
         <v>52445</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G79" s="5">
         <v>407.31</v>
       </c>
       <c r="H79" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -4211,7 +4199,7 @@
         <v>1008</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D80" s="4">
         <v>40451</v>
@@ -4220,19 +4208,19 @@
         <v>47047</v>
       </c>
       <c r="F80" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G80" s="5">
         <v>67.94</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -4240,7 +4228,7 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D81" s="4">
         <v>42643</v>
@@ -4249,19 +4237,19 @@
         <v>49403</v>
       </c>
       <c r="F81" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G81" s="5">
         <v>1433.26</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -4269,7 +4257,7 @@
         <v>1013</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D82" s="4">
         <v>42400</v>
@@ -4278,19 +4266,19 @@
         <v>24584</v>
       </c>
       <c r="F82" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G82" s="5">
         <v>307.02</v>
       </c>
       <c r="H82" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -4298,7 +4286,7 @@
         <v>1012</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D83" s="4">
         <v>38929</v>
@@ -4307,19 +4295,19 @@
         <v>14808</v>
       </c>
       <c r="F83" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G83" s="5">
         <v>144.07</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -4327,7 +4315,7 @@
         <v>1003</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D84" s="4">
         <v>40268</v>
@@ -4336,19 +4324,19 @@
         <v>15884</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G84" s="5">
         <v>229.18</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -4356,7 +4344,7 @@
         <v>1005</v>
       </c>
       <c r="C85" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D85" s="4">
         <v>41943</v>
@@ -4365,19 +4353,19 @@
         <v>9334</v>
       </c>
       <c r="F85" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G85" s="5">
         <v>105.61</v>
       </c>
       <c r="H85" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -4385,7 +4373,7 @@
         <v>1009</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D86" s="4">
         <v>39233</v>
@@ -4394,19 +4382,19 @@
         <v>45107</v>
       </c>
       <c r="F86" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G86" s="5">
         <v>32.43</v>
       </c>
       <c r="H86" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -4414,7 +4402,7 @@
         <v>1004</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D87" s="4">
         <v>36403</v>
@@ -4423,19 +4411,19 @@
         <v>17101</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G87" s="5">
         <v>399.51</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -4443,7 +4431,7 @@
         <v>1002</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="4">
         <v>42674</v>
@@ -4452,19 +4440,19 @@
         <v>9903</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G88" s="5">
         <v>397.09</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -4472,7 +4460,7 @@
         <v>1015</v>
       </c>
       <c r="C89" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D89" s="4">
         <v>36616</v>
@@ -4481,19 +4469,19 @@
         <v>37671</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G89" s="5">
         <v>402.99</v>
       </c>
       <c r="H89" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -4501,7 +4489,7 @@
         <v>1018</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D90" s="4">
         <v>38199</v>
@@ -4510,19 +4498,19 @@
         <v>39045</v>
       </c>
       <c r="F90" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G90" s="5">
         <v>367.05</v>
       </c>
       <c r="H90" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -4530,7 +4518,7 @@
         <v>1019</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D91" s="4">
         <v>37935</v>
@@ -4539,19 +4527,19 @@
         <v>54362</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G91" s="5">
         <v>396.79</v>
       </c>
       <c r="H91" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -4559,7 +4547,7 @@
         <v>1020</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D92" s="4">
         <v>41729</v>
@@ -4568,19 +4556,19 @@
         <v>48953</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G92" s="5">
         <v>151.94</v>
       </c>
       <c r="H92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -4588,7 +4576,7 @@
         <v>1003</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D93" s="4">
         <v>36830</v>
@@ -4597,19 +4585,19 @@
         <v>35765</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G93" s="5">
         <v>329.97</v>
       </c>
       <c r="H93" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I93" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -4617,7 +4605,7 @@
         <v>1015</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D94" s="4">
         <v>38868</v>
@@ -4626,19 +4614,19 @@
         <v>11796</v>
       </c>
       <c r="F94" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G94" s="5">
         <v>286.04000000000002</v>
       </c>
       <c r="H94" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -4646,7 +4634,7 @@
         <v>1011</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D95" s="4">
         <v>39386</v>
@@ -4655,19 +4643,19 @@
         <v>17988</v>
       </c>
       <c r="F95" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G95" s="5">
         <v>97.18</v>
       </c>
       <c r="H95" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -4675,7 +4663,7 @@
         <v>1017</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D96" s="4">
         <v>37925</v>
@@ -4684,19 +4672,19 @@
         <v>21004</v>
       </c>
       <c r="F96" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G96" s="5">
         <v>117.33</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -4704,7 +4692,7 @@
         <v>1004</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D97" s="4">
         <v>36583</v>
@@ -4713,19 +4701,19 @@
         <v>10173</v>
       </c>
       <c r="F97" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G97" s="5">
         <v>101.06</v>
       </c>
       <c r="H97" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I97" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -4733,7 +4721,7 @@
         <v>1004</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D98" s="4">
         <v>41943</v>
@@ -4742,19 +4730,19 @@
         <v>5005</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G98" s="5">
         <v>414.97</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I98" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -4762,7 +4750,7 @@
         <v>1003</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D99" s="4">
         <v>43039</v>
@@ -4771,19 +4759,19 @@
         <v>43277</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G99" s="5">
         <v>291.43</v>
       </c>
       <c r="H99" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -4791,7 +4779,7 @@
         <v>1020</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D100" s="4">
         <v>42634</v>
@@ -4800,19 +4788,19 @@
         <v>50660</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G100" s="5">
         <v>217.17</v>
       </c>
       <c r="H100" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -4820,7 +4808,7 @@
         <v>1014</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D101" s="4">
         <v>39200</v>
@@ -4829,19 +4817,19 @@
         <v>53923</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G101" s="5">
         <v>243.32</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1101</v>
       </c>
@@ -4849,7 +4837,7 @@
         <v>1018</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D102" s="4">
         <v>36559</v>
@@ -4858,19 +4846,19 @@
         <v>17027</v>
       </c>
       <c r="F102" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G102" s="5">
         <v>205.98</v>
       </c>
       <c r="H102" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1102</v>
       </c>
@@ -4878,7 +4866,7 @@
         <v>1001</v>
       </c>
       <c r="C103" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D103" s="4">
         <v>37042</v>
@@ -4887,19 +4875,19 @@
         <v>43098</v>
       </c>
       <c r="F103" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G103" s="5">
         <v>421.07</v>
       </c>
       <c r="H103" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1103</v>
       </c>
@@ -4907,7 +4895,7 @@
         <v>1016</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D104" s="4">
         <v>36470</v>
@@ -4916,19 +4904,19 @@
         <v>38232</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G104" s="5">
         <v>218.15</v>
       </c>
       <c r="H104" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I104" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1104</v>
       </c>
@@ -4936,7 +4924,7 @@
         <v>1014</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D105" s="4">
         <v>37565</v>
@@ -4945,19 +4933,19 @@
         <v>7357</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G105" s="5">
         <v>43.9</v>
       </c>
       <c r="H105" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1105</v>
       </c>
@@ -4965,7 +4953,7 @@
         <v>1002</v>
       </c>
       <c r="C106" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D106" s="4">
         <v>39538</v>
@@ -4974,19 +4962,19 @@
         <v>9252</v>
       </c>
       <c r="F106" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G106" s="5">
         <v>179.04</v>
       </c>
       <c r="H106" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I106" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1106</v>
       </c>
@@ -4994,7 +4982,7 @@
         <v>1012</v>
       </c>
       <c r="C107" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D107" s="4">
         <v>42735</v>
@@ -5003,19 +4991,19 @@
         <v>26366</v>
       </c>
       <c r="F107" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G107" s="5">
         <v>439.17</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I107" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1107</v>
       </c>
@@ -5023,7 +5011,7 @@
         <v>1017</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D108" s="4">
         <v>40543</v>
@@ -5032,19 +5020,19 @@
         <v>16021</v>
       </c>
       <c r="F108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G108" s="5">
         <v>202.87</v>
       </c>
       <c r="H108" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1108</v>
       </c>
@@ -5052,7 +5040,7 @@
         <v>1017</v>
       </c>
       <c r="C109" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D109" s="4">
         <v>41882</v>
@@ -5061,19 +5049,19 @@
         <v>50652</v>
       </c>
       <c r="F109" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G109" s="5">
         <v>141.43</v>
       </c>
       <c r="H109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I109" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1109</v>
       </c>
@@ -5081,7 +5069,7 @@
         <v>1005</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D110" s="4">
         <v>38291</v>
@@ -5090,19 +5078,19 @@
         <v>8692</v>
       </c>
       <c r="F110" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G110" s="5">
         <v>31.45</v>
       </c>
       <c r="H110" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I110" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1110</v>
       </c>
@@ -5110,7 +5098,7 @@
         <v>1019</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D111" s="4">
         <v>43100</v>
@@ -5119,19 +5107,19 @@
         <v>38629</v>
       </c>
       <c r="F111" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G111" s="5">
         <v>426.19</v>
       </c>
       <c r="H111" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I111" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1111</v>
       </c>
@@ -5139,7 +5127,7 @@
         <v>1018</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D112" s="4">
         <v>39619</v>
@@ -5148,19 +5136,19 @@
         <v>40638</v>
       </c>
       <c r="F112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G112" s="5">
         <v>272.01</v>
       </c>
       <c r="H112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I112" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1112</v>
       </c>
@@ -5168,7 +5156,7 @@
         <v>1017</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D113" s="4">
         <v>37418</v>
@@ -5177,19 +5165,19 @@
         <v>39120</v>
       </c>
       <c r="F113" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G113" s="5">
         <v>318.97000000000003</v>
       </c>
       <c r="H113" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I113" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1113</v>
       </c>
@@ -5197,7 +5185,7 @@
         <v>1014</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D114" s="4">
         <v>42274</v>
@@ -5206,19 +5194,19 @@
         <v>34391</v>
       </c>
       <c r="F114" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G114" s="5">
         <v>230.07</v>
       </c>
       <c r="H114" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I114" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1114</v>
       </c>
@@ -5226,7 +5214,7 @@
         <v>1016</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D115" s="4">
         <v>38442</v>
@@ -5235,19 +5223,19 @@
         <v>44969</v>
       </c>
       <c r="F115" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G115" s="5">
         <v>445.15</v>
       </c>
       <c r="H115" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I115" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1115</v>
       </c>
@@ -5255,7 +5243,7 @@
         <v>1002</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D116" s="4">
         <v>40847</v>
@@ -5264,19 +5252,19 @@
         <v>39452</v>
       </c>
       <c r="F116" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G116" s="5">
         <v>306.70999999999998</v>
       </c>
       <c r="H116" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I116" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1116</v>
       </c>
@@ -5284,7 +5272,7 @@
         <v>1007</v>
       </c>
       <c r="C117" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D117" s="4">
         <v>42947</v>
@@ -5293,19 +5281,19 @@
         <v>50900</v>
       </c>
       <c r="F117" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G117" s="5">
         <v>440.11</v>
       </c>
       <c r="H117" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1117</v>
       </c>
@@ -5313,7 +5301,7 @@
         <v>1005</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D118" s="4">
         <v>40077</v>
@@ -5322,19 +5310,19 @@
         <v>4563</v>
       </c>
       <c r="F118" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G118" s="5">
         <v>218.37</v>
       </c>
       <c r="H118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I118" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1118</v>
       </c>
@@ -5342,7 +5330,7 @@
         <v>1009</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D119" s="4">
         <v>37347</v>
@@ -5351,19 +5339,19 @@
         <v>12385</v>
       </c>
       <c r="F119" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G119" s="5">
         <v>395.4</v>
       </c>
       <c r="H119" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I119" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1119</v>
       </c>
@@ -5371,7 +5359,7 @@
         <v>1007</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D120" s="4">
         <v>43343</v>
@@ -5380,19 +5368,19 @@
         <v>7311</v>
       </c>
       <c r="F120" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G120" s="5">
         <v>37.93</v>
       </c>
       <c r="H120" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1120</v>
       </c>
@@ -5400,7 +5388,7 @@
         <v>1004</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D121" s="4">
         <v>42613</v>
@@ -5409,19 +5397,19 @@
         <v>30326</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G121" s="5">
         <v>269.22000000000003</v>
       </c>
       <c r="H121" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I121" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1121</v>
       </c>
@@ -5429,7 +5417,7 @@
         <v>1015</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D122" s="4">
         <v>43420</v>
@@ -5438,19 +5426,19 @@
         <v>52264</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G122" s="5">
         <v>426.81</v>
       </c>
       <c r="H122" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I122" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1122</v>
       </c>
@@ -5458,7 +5446,7 @@
         <v>1008</v>
       </c>
       <c r="C123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D123" s="4">
         <v>42853</v>
@@ -5467,19 +5455,19 @@
         <v>35294</v>
       </c>
       <c r="F123" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G123" s="5">
         <v>283.77999999999997</v>
       </c>
       <c r="H123" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I123" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1123</v>
       </c>
@@ -5487,7 +5475,7 @@
         <v>1004</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D124" s="4">
         <v>42582</v>
@@ -5496,19 +5484,19 @@
         <v>55680</v>
       </c>
       <c r="F124" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G124" s="5">
         <v>80.97</v>
       </c>
       <c r="H124" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I124" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1124</v>
       </c>
@@ -5516,7 +5504,7 @@
         <v>1009</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D125" s="4">
         <v>38460</v>
@@ -5525,19 +5513,19 @@
         <v>34882</v>
       </c>
       <c r="F125" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G125" s="5">
         <v>307.01</v>
       </c>
       <c r="H125" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I125" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1125</v>
       </c>
@@ -5545,7 +5533,7 @@
         <v>1018</v>
       </c>
       <c r="C126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D126" s="4">
         <v>41526</v>
@@ -5554,19 +5542,19 @@
         <v>49192</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" s="5">
         <v>339.47</v>
       </c>
       <c r="H126" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I126" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1126</v>
       </c>
@@ -5574,7 +5562,7 @@
         <v>1012</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D127" s="4">
         <v>36311</v>
@@ -5583,19 +5571,19 @@
         <v>48210</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" s="5">
         <v>259.58</v>
       </c>
       <c r="H127" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I127" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1127</v>
       </c>
@@ -5603,7 +5591,7 @@
         <v>1012</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D128" s="4">
         <v>38670</v>
@@ -5612,19 +5600,19 @@
         <v>27666</v>
       </c>
       <c r="F128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G128" s="5">
         <v>348.31</v>
       </c>
       <c r="H128" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I128" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1128</v>
       </c>
@@ -5632,7 +5620,7 @@
         <v>1011</v>
       </c>
       <c r="C129" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D129" s="4">
         <v>41693</v>
@@ -5641,19 +5629,19 @@
         <v>32494</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G129" s="5">
         <v>47.45</v>
       </c>
       <c r="H129" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I129" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1129</v>
       </c>
@@ -5661,7 +5649,7 @@
         <v>1013</v>
       </c>
       <c r="C130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D130" s="4">
         <v>40268</v>
@@ -5670,19 +5658,19 @@
         <v>21219</v>
       </c>
       <c r="F130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G130" s="5">
         <v>65.66</v>
       </c>
       <c r="H130" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I130" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1130</v>
       </c>
@@ -5690,7 +5678,7 @@
         <v>1006</v>
       </c>
       <c r="C131" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D131" s="4">
         <v>39133</v>
@@ -5699,19 +5687,19 @@
         <v>50100</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" s="5">
         <v>268.82</v>
       </c>
       <c r="H131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I131" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1131</v>
       </c>
@@ -5719,7 +5707,7 @@
         <v>1019</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D132" s="4">
         <v>41675</v>
@@ -5728,19 +5716,19 @@
         <v>41891</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G132" s="5">
         <v>446.69</v>
       </c>
       <c r="H132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I132" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1132</v>
       </c>
@@ -5748,7 +5736,7 @@
         <v>1008</v>
       </c>
       <c r="C133" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D133" s="4">
         <v>37925</v>
@@ -5757,19 +5745,19 @@
         <v>6320</v>
       </c>
       <c r="F133" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G133" s="5">
         <v>113.11</v>
       </c>
       <c r="H133" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I133" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1133</v>
       </c>
@@ -5777,7 +5765,7 @@
         <v>1006</v>
       </c>
       <c r="C134" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D134" s="4">
         <v>40634</v>
@@ -5786,19 +5774,19 @@
         <v>7423</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G134" s="5">
         <v>260.55</v>
       </c>
       <c r="H134" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I134" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1134</v>
       </c>
@@ -5806,7 +5794,7 @@
         <v>1007</v>
       </c>
       <c r="C135" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D135" s="4">
         <v>37346</v>
@@ -5815,19 +5803,19 @@
         <v>7602</v>
       </c>
       <c r="F135" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G135" s="5">
         <v>422.82</v>
       </c>
       <c r="H135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I135" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1135</v>
       </c>
@@ -5835,7 +5823,7 @@
         <v>1014</v>
       </c>
       <c r="C136" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D136" s="4">
         <v>39538</v>
@@ -5844,19 +5832,19 @@
         <v>18052</v>
       </c>
       <c r="F136" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G136" s="5">
         <v>70.569999999999993</v>
       </c>
       <c r="H136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I136" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1136</v>
       </c>
@@ -5864,7 +5852,7 @@
         <v>1003</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D137" s="4">
         <v>41943</v>
@@ -5873,19 +5861,19 @@
         <v>15763</v>
       </c>
       <c r="F137" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G137" s="5">
         <v>149.87</v>
       </c>
       <c r="H137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I137" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1137</v>
       </c>
@@ -5893,7 +5881,7 @@
         <v>1014</v>
       </c>
       <c r="C138" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D138" s="4">
         <v>41447</v>
@@ -5902,19 +5890,19 @@
         <v>42087</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G138" s="5">
         <v>111.94</v>
       </c>
       <c r="H138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I138" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1138</v>
       </c>
@@ -5922,7 +5910,7 @@
         <v>1003</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D139" s="4">
         <v>37134</v>
@@ -5931,19 +5919,19 @@
         <v>8753</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G139" s="5">
         <v>264.33</v>
       </c>
       <c r="H139" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I139" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1139</v>
       </c>
@@ -5951,7 +5939,7 @@
         <v>1019</v>
       </c>
       <c r="C140" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D140" s="4">
         <v>41060</v>
@@ -5960,19 +5948,19 @@
         <v>24980</v>
       </c>
       <c r="F140" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G140" s="5">
         <v>67.510000000000005</v>
       </c>
       <c r="H140" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I140" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1140</v>
       </c>
@@ -5980,7 +5968,7 @@
         <v>1003</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D141" s="4">
         <v>38199</v>
@@ -5989,19 +5977,19 @@
         <v>17004</v>
       </c>
       <c r="F141" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G141" s="5">
         <v>328.33</v>
       </c>
       <c r="H141" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I141" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1141</v>
       </c>
@@ -6009,7 +5997,7 @@
         <v>1001</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D142" s="4">
         <v>42696</v>
@@ -6018,19 +6006,19 @@
         <v>17512</v>
       </c>
       <c r="F142" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G142" s="5">
         <v>386.54</v>
       </c>
       <c r="H142" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I142" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1142</v>
       </c>
@@ -6038,7 +6026,7 @@
         <v>1011</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D143" s="4">
         <v>42947</v>
@@ -6047,19 +6035,19 @@
         <v>54803</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G143" s="5">
         <v>305.98</v>
       </c>
       <c r="H143" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I143" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1143</v>
       </c>
@@ -6067,7 +6055,7 @@
         <v>1010</v>
       </c>
       <c r="C144" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D144" s="4">
         <v>41060</v>
@@ -6076,19 +6064,19 @@
         <v>15563</v>
       </c>
       <c r="F144" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G144" s="5">
         <v>413.49</v>
       </c>
       <c r="H144" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I144" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1144</v>
       </c>
@@ -6096,7 +6084,7 @@
         <v>1019</v>
       </c>
       <c r="C145" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D145" s="4">
         <v>43404</v>
@@ -6105,19 +6093,19 @@
         <v>55178</v>
       </c>
       <c r="F145" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G145" s="5">
         <v>302.87</v>
       </c>
       <c r="H145" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I145" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1145</v>
       </c>
@@ -6125,7 +6113,7 @@
         <v>1007</v>
       </c>
       <c r="C146" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D146" s="4">
         <v>40543</v>
@@ -6134,19 +6122,19 @@
         <v>45371</v>
       </c>
       <c r="F146" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G146" s="5">
         <v>180.69</v>
       </c>
       <c r="H146" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I146" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1146</v>
       </c>
@@ -6154,7 +6142,7 @@
         <v>1005</v>
       </c>
       <c r="C147" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D147" s="4">
         <v>38960</v>
@@ -6163,19 +6151,19 @@
         <v>9867</v>
       </c>
       <c r="F147" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G147" s="5">
         <v>51.98</v>
       </c>
       <c r="H147" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I147" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1147</v>
       </c>
@@ -6183,7 +6171,7 @@
         <v>1013</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D148" s="4">
         <v>41796</v>
@@ -6192,19 +6180,19 @@
         <v>49558</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G148" s="5">
         <v>74.94</v>
       </c>
       <c r="H148" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I148" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1148</v>
       </c>
@@ -6212,7 +6200,7 @@
         <v>1019</v>
       </c>
       <c r="C149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D149" s="4">
         <v>37431</v>
@@ -6221,19 +6209,19 @@
         <v>12188</v>
       </c>
       <c r="F149" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G149" s="5">
         <v>205.55</v>
       </c>
       <c r="H149" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I149" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1149</v>
       </c>
@@ -6241,7 +6229,7 @@
         <v>1017</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D150" s="4">
         <v>39172</v>
@@ -6250,19 +6238,19 @@
         <v>11537</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G150" s="5">
         <v>199.79</v>
       </c>
       <c r="H150" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I150" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1150</v>
       </c>
@@ -6270,7 +6258,7 @@
         <v>1001</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D151" s="4">
         <v>39912</v>
@@ -6279,79 +6267,24 @@
         <v>24305</v>
       </c>
       <c r="F151" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G151" s="5">
         <v>347.22</v>
       </c>
       <c r="H151" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I151" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>